--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="H2">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="I2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="J2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>1.916933439057778</v>
+        <v>0.004422287331111111</v>
       </c>
       <c r="R2">
-        <v>17.25240095152</v>
+        <v>0.03980058598</v>
       </c>
       <c r="S2">
-        <v>0.02646516120890963</v>
+        <v>0.000752800717725255</v>
       </c>
       <c r="T2">
-        <v>0.02646516120890962</v>
+        <v>0.0007528007177252551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="H3">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="I3">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="J3">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>0.02430447380744444</v>
+        <v>0.02446892452944445</v>
       </c>
       <c r="R3">
-        <v>0.218740264267</v>
+        <v>0.220220320765</v>
       </c>
       <c r="S3">
-        <v>0.0003355472883439807</v>
+        <v>0.004165315948184387</v>
       </c>
       <c r="T3">
-        <v>0.0003355472883439807</v>
+        <v>0.004165315948184386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="H4">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="I4">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="J4">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>0.1400694567696667</v>
+        <v>0.1410172050516667</v>
       </c>
       <c r="R4">
-        <v>1.260625110927</v>
+        <v>1.269154845465</v>
       </c>
       <c r="S4">
-        <v>0.00193379732353967</v>
+        <v>0.0240051912564966</v>
       </c>
       <c r="T4">
-        <v>0.00193379732353967</v>
+        <v>0.0240051912564966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.264165</v>
       </c>
       <c r="I5">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="J5">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>10.97513218231111</v>
+        <v>0.02514901758444444</v>
       </c>
       <c r="R5">
-        <v>98.7761896408</v>
+        <v>0.22634115826</v>
       </c>
       <c r="S5">
-        <v>0.1515225498057583</v>
+        <v>0.004281087380836937</v>
       </c>
       <c r="T5">
-        <v>0.1515225498057583</v>
+        <v>0.004281087380836938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.264165</v>
       </c>
       <c r="I6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="J6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>0.1391518386727778</v>
@@ -818,10 +818,10 @@
         <v>1.252366548055</v>
       </c>
       <c r="S6">
-        <v>0.001921128698553758</v>
+        <v>0.02368765215428379</v>
       </c>
       <c r="T6">
-        <v>0.001921128698553758</v>
+        <v>0.02368765215428379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.264165</v>
       </c>
       <c r="I7">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="J7">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>0.8019479296616666</v>
@@ -880,10 +880,10 @@
         <v>7.217531366955</v>
       </c>
       <c r="S7">
-        <v>0.01107168397567279</v>
+        <v>0.1365146431758205</v>
       </c>
       <c r="T7">
-        <v>0.01107168397567279</v>
+        <v>0.1365146431758205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>6.199210000000001</v>
       </c>
       <c r="I8">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="J8">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>53.81983299324445</v>
+        <v>0.1233257061377778</v>
       </c>
       <c r="R8">
-        <v>484.3784969392</v>
+        <v>1.10993135524</v>
       </c>
       <c r="S8">
-        <v>0.7430360008237492</v>
+        <v>0.02099358841777628</v>
       </c>
       <c r="T8">
-        <v>0.7430360008237492</v>
+        <v>0.02099358841777628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="I9">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="J9">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>0.6823725303411112</v>
@@ -1004,10 +1004,10 @@
         <v>6.14135277307</v>
       </c>
       <c r="S9">
-        <v>0.009420827375668085</v>
+        <v>0.1161594650313509</v>
       </c>
       <c r="T9">
-        <v>0.009420827375668085</v>
+        <v>0.1161594650313508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="I10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="J10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>3.932590781296667</v>
@@ -1066,10 +1066,10 @@
         <v>35.39331703167</v>
       </c>
       <c r="S10">
-        <v>0.05429330349980462</v>
+        <v>0.6694402559175254</v>
       </c>
       <c r="T10">
-        <v>0.05429330349980462</v>
+        <v>0.6694402559175254</v>
       </c>
     </row>
   </sheetData>
